--- a/txt/gi.xlsx
+++ b/txt/gi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="呉デッキ" sheetId="1" r:id="rId1"/>
@@ -239,13 +239,13 @@
             <v>8</v>
           </cell>
           <cell r="E3">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="F3">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="G3" t="str">
-            <v>雄叫び：全ての敵に3ダメージ</v>
+            <v>雄叫び：「赤壁の大火」を2枚手札に加える</v>
           </cell>
         </row>
         <row r="4">
@@ -331,7 +331,7 @@
             <v>1</v>
           </cell>
           <cell r="E7">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F7">
             <v>-1</v>
@@ -354,7 +354,7 @@
             <v>2</v>
           </cell>
           <cell r="E8">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F8">
             <v>-1</v>
@@ -377,7 +377,7 @@
             <v>2</v>
           </cell>
           <cell r="E9">
-            <v>-1</v>
+            <v>1</v>
           </cell>
           <cell r="F9">
             <v>-1</v>
@@ -400,7 +400,7 @@
             <v>4</v>
           </cell>
           <cell r="E10">
-            <v>-1</v>
+            <v>6</v>
           </cell>
           <cell r="F10">
             <v>-1</v>
@@ -423,7 +423,7 @@
             <v>2</v>
           </cell>
           <cell r="E11">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F11">
             <v>-1</v>
@@ -502,6 +502,9 @@
           <cell r="F15">
             <v>9</v>
           </cell>
+          <cell r="G15" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -522,6 +525,9 @@
           <cell r="F16">
             <v>6</v>
           </cell>
+          <cell r="G16" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -609,7 +615,7 @@
             <v>1</v>
           </cell>
           <cell r="F20">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="G20" t="str">
             <v>雄叫び：味方1体のHP+2</v>
@@ -626,10 +632,10 @@
             <v>2</v>
           </cell>
           <cell r="D21">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E21">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F21">
             <v>-1</v>
@@ -652,7 +658,7 @@
             <v>3</v>
           </cell>
           <cell r="E22">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F22">
             <v>-1</v>
@@ -675,7 +681,7 @@
             <v>2</v>
           </cell>
           <cell r="E23">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F23">
             <v>-1</v>
@@ -841,7 +847,7 @@
             <v>0</v>
           </cell>
           <cell r="E31">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F31">
             <v>-1</v>
@@ -864,7 +870,7 @@
             <v>4</v>
           </cell>
           <cell r="E32">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F32">
             <v>-1</v>
@@ -887,7 +893,7 @@
             <v>3</v>
           </cell>
           <cell r="E33">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F33">
             <v>-1</v>
@@ -910,7 +916,7 @@
             <v>5</v>
           </cell>
           <cell r="E34">
-            <v>-1</v>
+            <v>8</v>
           </cell>
           <cell r="F34">
             <v>-1</v>
@@ -1145,7 +1151,7 @@
             <v>3</v>
           </cell>
           <cell r="E45">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F45">
             <v>-1</v>
@@ -1178,6 +1184,9 @@
           <cell r="F48">
             <v>1</v>
           </cell>
+          <cell r="G48" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49">
@@ -1198,6 +1207,9 @@
           <cell r="F49">
             <v>3</v>
           </cell>
+          <cell r="G49" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50">
@@ -1218,6 +1230,9 @@
           <cell r="F50">
             <v>5</v>
           </cell>
+          <cell r="G50" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51">
@@ -1371,7 +1386,7 @@
             <v>2</v>
           </cell>
           <cell r="E57">
-            <v>-1</v>
+            <v>1</v>
           </cell>
           <cell r="F57">
             <v>-1</v>
@@ -2243,7 +2258,7 @@
       </c>
       <c r="E16">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
@@ -2272,7 +2287,7 @@
       </c>
       <c r="E17">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
@@ -2301,7 +2316,7 @@
       </c>
       <c r="E18">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
@@ -2330,7 +2345,7 @@
       </c>
       <c r="E19">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
@@ -2359,7 +2374,7 @@
       </c>
       <c r="E20">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
@@ -2388,7 +2403,7 @@
       </c>
       <c r="E21">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
@@ -2417,7 +2432,7 @@
       </c>
       <c r="E22">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2446,7 +2461,7 @@
       </c>
       <c r="E23">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="E24">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
@@ -2504,7 +2519,7 @@
       </c>
       <c r="E25">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
@@ -2541,7 +2556,7 @@
       </c>
       <c r="G26" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v/>
+        <v>無し</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2570,7 +2585,7 @@
       </c>
       <c r="G27" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
-        <v/>
+        <v>無し</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2599,7 +2614,7 @@
       </c>
       <c r="G28" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v/>
+        <v>無し</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">

--- a/txt/gi.xlsx
+++ b/txt/gi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="呉デッキ" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
             <v>4</v>
           </cell>
           <cell r="G4" t="str">
-            <v>雄叫び：1枚ドロー</v>
+            <v>雄叫び：カードを1枚引く</v>
           </cell>
         </row>
         <row r="5">
@@ -429,7 +429,7 @@
             <v>-1</v>
           </cell>
           <cell r="G11" t="str">
-            <v>2枚ドロー</v>
+            <v>カードを2枚引く</v>
           </cell>
         </row>
         <row r="12">
@@ -687,7 +687,7 @@
             <v>-1</v>
           </cell>
           <cell r="G23" t="str">
-            <v>マナ+1　味方軍師HP+2</v>
+            <v>最大マナ+1　味方軍師HP+2</v>
           </cell>
         </row>
         <row r="24">
@@ -732,13 +732,13 @@
             <v>7</v>
           </cell>
           <cell r="E26">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="F26">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="G26" t="str">
-            <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
+            <v>雄叫び：敵兵士1体の攻撃力-4</v>
           </cell>
         </row>
         <row r="27">
@@ -784,7 +784,7 @@
             <v>3</v>
           </cell>
           <cell r="G28" t="str">
-            <v>全ての味方兵士は突撃を得る</v>
+            <v>召喚した全ての味方兵士は突撃を得る</v>
           </cell>
         </row>
         <row r="29">
@@ -830,7 +830,7 @@
             <v>2</v>
           </cell>
           <cell r="G30" t="str">
-            <v>敵兵士1体の攻撃力-2</v>
+            <v>雄叫び：敵兵士1体の攻撃力-2</v>
           </cell>
         </row>
         <row r="31">
@@ -853,7 +853,7 @@
             <v>-1</v>
           </cell>
           <cell r="G31" t="str">
-            <v>このターン敵兵士の攻撃力-2</v>
+            <v>敵兵士1体の攻撃力-2</v>
           </cell>
         </row>
         <row r="32">
@@ -890,16 +890,16 @@
             <v>2</v>
           </cell>
           <cell r="D33">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E33">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="F33">
             <v>-1</v>
           </cell>
           <cell r="G33" t="str">
-            <v>敵兵士1体とその両隣の兵士に3ダメージ</v>
+            <v>全ての敵兵士に2ダメージ</v>
           </cell>
         </row>
         <row r="34">
@@ -964,7 +964,7 @@
             <v>1</v>
           </cell>
           <cell r="D37">
-            <v>8</v>
+            <v>6</v>
           </cell>
           <cell r="E37">
             <v>3</v>
@@ -973,7 +973,7 @@
             <v>5</v>
           </cell>
           <cell r="G37" t="str">
-            <v>自分の場が埋まるまで中級歩兵を召喚</v>
+            <v>自分の場が埋まるまで初級歩兵を召喚</v>
           </cell>
         </row>
         <row r="38">
@@ -1392,7 +1392,7 @@
             <v>-1</v>
           </cell>
           <cell r="G57" t="str">
-            <v>1点ダメージ1ドロー</v>
+            <v>敵1体に1ダメージ　カードを1枚引く</v>
           </cell>
         </row>
       </sheetData>
@@ -1824,11 +1824,11 @@
       </c>
       <c r="K2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <f t="shared" si="1"/>
@@ -1881,15 +1881,15 @@
       </c>
       <c r="E3">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
+        <v>雄叫び：敵兵士1体の攻撃力-4</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1910,15 +1910,15 @@
       </c>
       <c r="E4">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
+        <v>雄叫び：敵兵士1体の攻撃力-4</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="G8" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A8,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A8,[1]カードリスト!$A:$A,0)))</f>
-        <v>全ての味方兵士は突撃を得る</v>
+        <v>召喚した全ての味方兵士は突撃を得る</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G9" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A9,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A9,[1]カードリスト!$A:$A,0)))</f>
-        <v>全ての味方兵士は突撃を得る</v>
+        <v>召喚した全ての味方兵士は突撃を得る</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="G13" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>雄叫び：敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="G14" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>雄叫び：敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G15" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>雄叫び：敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G16" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>このターン敵兵士の攻撃力-2</v>
+        <v>敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G17" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>このターン敵兵士の攻撃力-2</v>
+        <v>敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G18" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>このターン敵兵士の攻撃力-2</v>
+        <v>敵兵士1体の攻撃力-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="D21">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="G21" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体とその両隣の兵士に3ダメージ</v>
+        <v>全ての敵兵士に2ダメージ</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="D22">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G22" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体とその両隣の兵士に3ダメージ</v>
+        <v>全ての敵兵士に2ダメージ</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2457,11 +2457,11 @@
       </c>
       <c r="D23">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="G23" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体とその両隣の兵士に3ダメージ</v>
+        <v>全ての敵兵士に2ダメージ</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">

--- a/txt/gi.xlsx
+++ b/txt/gi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,86 @@
     <t>呪文</t>
     <rPh sb="0" eb="2">
       <t>ジュモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>張ｺｳ</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>ﾎｳ娥</t>
+  </si>
+  <si>
+    <t>王異</t>
+  </si>
+  <si>
+    <t>弱体化</t>
+  </si>
+  <si>
+    <t>突撃召喚</t>
+  </si>
+  <si>
+    <t>乱撃</t>
+  </si>
+  <si>
+    <t>切断</t>
+  </si>
+  <si>
+    <t>中級歩兵</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級歩兵</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級騎兵</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級騎兵</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢の一撃</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -194,6 +274,7 @@
       <sheetName val="カードリスト"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -420,7 +501,7 @@
             <v>2</v>
           </cell>
           <cell r="D11">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E11">
             <v>2</v>
@@ -462,7 +543,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>11</v>
+            <v>1001</v>
           </cell>
           <cell r="B14" t="str">
             <v>劉備</v>
@@ -485,7 +566,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>12</v>
+            <v>1002</v>
           </cell>
           <cell r="B15" t="str">
             <v>関羽</v>
@@ -508,7 +589,7 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>13</v>
+            <v>1003</v>
           </cell>
           <cell r="B16" t="str">
             <v>張飛</v>
@@ -531,7 +612,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>14</v>
+            <v>1004</v>
           </cell>
           <cell r="B17" t="str">
             <v>黄忠</v>
@@ -554,7 +635,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>15</v>
+            <v>1005</v>
           </cell>
           <cell r="B18" t="str">
             <v>魏延</v>
@@ -577,7 +658,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>16</v>
+            <v>1006</v>
           </cell>
           <cell r="B19" t="str">
             <v>関銀屏</v>
@@ -600,7 +681,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>17</v>
+            <v>1007</v>
           </cell>
           <cell r="B20" t="str">
             <v>甘皇后</v>
@@ -623,7 +704,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>18</v>
+            <v>1008</v>
           </cell>
           <cell r="B21" t="str">
             <v>援軍</v>
@@ -646,7 +727,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>19</v>
+            <v>1009</v>
           </cell>
           <cell r="B22" t="str">
             <v>巨大化</v>
@@ -669,7 +750,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>20</v>
+            <v>1010</v>
           </cell>
           <cell r="B23" t="str">
             <v>自然</v>
@@ -697,7 +778,7 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>21</v>
+            <v>2001</v>
           </cell>
           <cell r="B25" t="str">
             <v>曹操</v>
@@ -720,7 +801,7 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>22</v>
+            <v>2002</v>
           </cell>
           <cell r="B26" t="str">
             <v>夏侯惇</v>
@@ -732,18 +813,18 @@
             <v>7</v>
           </cell>
           <cell r="E26">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="F26">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="G26" t="str">
-            <v>雄叫び：敵兵士1体の攻撃力-4</v>
+            <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>23</v>
+            <v>2003</v>
           </cell>
           <cell r="B27" t="str">
             <v>張ｺｳ</v>
@@ -766,7 +847,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>24</v>
+            <v>2004</v>
           </cell>
           <cell r="B28" t="str">
             <v>郭嘉</v>
@@ -789,7 +870,7 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>25</v>
+            <v>2005</v>
           </cell>
           <cell r="B29" t="str">
             <v>ﾎｳ娥</v>
@@ -812,7 +893,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>26</v>
+            <v>2006</v>
           </cell>
           <cell r="B30" t="str">
             <v>王異</v>
@@ -835,7 +916,7 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>27</v>
+            <v>2007</v>
           </cell>
           <cell r="B31" t="str">
             <v>弱体化</v>
@@ -847,18 +928,18 @@
             <v>0</v>
           </cell>
           <cell r="E31">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="F31">
             <v>-1</v>
           </cell>
           <cell r="G31" t="str">
-            <v>敵兵士1体の攻撃力-2</v>
+            <v>このターン敵兵士1体の攻撃力-3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>28</v>
+            <v>2008</v>
           </cell>
           <cell r="B32" t="str">
             <v>突撃召喚</v>
@@ -881,7 +962,7 @@
         </row>
         <row r="33">
           <cell r="A33">
-            <v>29</v>
+            <v>2009</v>
           </cell>
           <cell r="B33" t="str">
             <v>乱撃</v>
@@ -904,7 +985,7 @@
         </row>
         <row r="34">
           <cell r="A34">
-            <v>30</v>
+            <v>2010</v>
           </cell>
           <cell r="B34" t="str">
             <v>切断</v>
@@ -932,7 +1013,7 @@
         </row>
         <row r="36">
           <cell r="A36">
-            <v>31</v>
+            <v>3001</v>
           </cell>
           <cell r="B36" t="str">
             <v>呂布</v>
@@ -955,7 +1036,7 @@
         </row>
         <row r="37">
           <cell r="A37">
-            <v>32</v>
+            <v>3002</v>
           </cell>
           <cell r="B37" t="str">
             <v>張角</v>
@@ -978,7 +1059,7 @@
         </row>
         <row r="38">
           <cell r="A38">
-            <v>33</v>
+            <v>3003</v>
           </cell>
           <cell r="B38" t="str">
             <v>高順</v>
@@ -1001,7 +1082,7 @@
         </row>
         <row r="39">
           <cell r="A39">
-            <v>34</v>
+            <v>3004</v>
           </cell>
           <cell r="B39" t="str">
             <v>李儒</v>
@@ -1024,7 +1105,7 @@
         </row>
         <row r="40">
           <cell r="A40">
-            <v>35</v>
+            <v>3005</v>
           </cell>
           <cell r="B40" t="str">
             <v>祝融</v>
@@ -1042,12 +1123,12 @@
             <v>3</v>
           </cell>
           <cell r="G40" t="str">
-            <v>挑発、断末魔：中級槍兵を召喚</v>
+            <v>挑発、断末魔：初級槍兵を召喚</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>36</v>
+            <v>3006</v>
           </cell>
           <cell r="B41" t="str">
             <v>厳氏</v>
@@ -1056,21 +1137,21 @@
             <v>1</v>
           </cell>
           <cell r="D41">
+            <v>5</v>
+          </cell>
+          <cell r="E41">
+            <v>2</v>
+          </cell>
+          <cell r="F41">
             <v>3</v>
           </cell>
-          <cell r="E41">
-            <v>2</v>
-          </cell>
-          <cell r="F41">
-            <v>1</v>
-          </cell>
           <cell r="G41" t="str">
-            <v>雄叫び：両プレイヤーのランダムな兵士1体を破壊</v>
+            <v>雄叫び：敵兵士1体を破壊　全ての味方兵士に2ダメージ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>37</v>
+            <v>3007</v>
           </cell>
           <cell r="B42" t="str">
             <v>公孫瓚</v>
@@ -1093,7 +1174,7 @@
         </row>
         <row r="43">
           <cell r="A43">
-            <v>38</v>
+            <v>3008</v>
           </cell>
           <cell r="B43" t="str">
             <v>袁紹</v>
@@ -1116,7 +1197,7 @@
         </row>
         <row r="44">
           <cell r="A44">
-            <v>39</v>
+            <v>3009</v>
           </cell>
           <cell r="B44" t="str">
             <v>貂蝉</v>
@@ -1139,7 +1220,7 @@
         </row>
         <row r="45">
           <cell r="A45">
-            <v>40</v>
+            <v>3010</v>
           </cell>
           <cell r="B45" t="str">
             <v>破滅</v>
@@ -1148,41 +1229,64 @@
             <v>2</v>
           </cell>
           <cell r="D45">
+            <v>4</v>
+          </cell>
+          <cell r="E45">
             <v>3</v>
-          </cell>
-          <cell r="E45">
-            <v>2</v>
           </cell>
           <cell r="F45">
             <v>-1</v>
           </cell>
           <cell r="G45" t="str">
-            <v>全ての兵士に2ダメージ</v>
+            <v>全ての兵士に3ダメージ</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>共通</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v>共通</v>
+          <cell r="A47">
+            <v>4001</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>初級歩兵</v>
+          </cell>
+          <cell r="C47">
+            <v>1</v>
+          </cell>
+          <cell r="D47">
+            <v>1</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+          <cell r="F47">
+            <v>1</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>無し</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41</v>
+            <v>4002</v>
           </cell>
           <cell r="B48" t="str">
-            <v>初級歩兵</v>
+            <v>中級歩兵</v>
           </cell>
           <cell r="C48">
             <v>1</v>
           </cell>
           <cell r="D48">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E48">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="F48">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="G48" t="str">
             <v>無し</v>
@@ -1190,22 +1294,22 @@
         </row>
         <row r="49">
           <cell r="A49">
-            <v>42</v>
+            <v>4003</v>
           </cell>
           <cell r="B49" t="str">
-            <v>中級歩兵</v>
+            <v>上級歩兵</v>
           </cell>
           <cell r="C49">
             <v>1</v>
           </cell>
           <cell r="D49">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E49">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="F49">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="G49" t="str">
             <v>無し</v>
@@ -1213,42 +1317,42 @@
         </row>
         <row r="50">
           <cell r="A50">
-            <v>43</v>
+            <v>4004</v>
           </cell>
           <cell r="B50" t="str">
-            <v>上級歩兵</v>
+            <v>初級騎兵</v>
           </cell>
           <cell r="C50">
             <v>1</v>
           </cell>
           <cell r="D50">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E50">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="F50">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="G50" t="str">
-            <v>無し</v>
+            <v>突撃</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>44</v>
+            <v>4005</v>
           </cell>
           <cell r="B51" t="str">
-            <v>初級騎兵</v>
+            <v>中級騎兵</v>
           </cell>
           <cell r="C51">
             <v>1</v>
           </cell>
           <cell r="D51">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E51">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="F51">
             <v>1</v>
@@ -1259,22 +1363,22 @@
         </row>
         <row r="52">
           <cell r="A52">
-            <v>45</v>
+            <v>4006</v>
           </cell>
           <cell r="B52" t="str">
-            <v>中級騎兵</v>
+            <v>上級騎兵</v>
           </cell>
           <cell r="C52">
             <v>1</v>
           </cell>
           <cell r="D52">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E52">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="F52">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G52" t="str">
             <v>突撃</v>
@@ -1282,45 +1386,45 @@
         </row>
         <row r="53">
           <cell r="A53">
-            <v>46</v>
+            <v>4007</v>
           </cell>
           <cell r="B53" t="str">
-            <v>上級騎兵</v>
+            <v>初級槍兵</v>
           </cell>
           <cell r="C53">
             <v>1</v>
           </cell>
           <cell r="D53">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E53">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="F53">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="G53" t="str">
-            <v>突撃</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>47</v>
+            <v>4008</v>
           </cell>
           <cell r="B54" t="str">
-            <v>初級槍兵</v>
+            <v>中級槍兵</v>
           </cell>
           <cell r="C54">
             <v>1</v>
           </cell>
           <cell r="D54">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E54">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="F54">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="G54" t="str">
             <v>挑発</v>
@@ -1328,22 +1432,22 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>48</v>
+            <v>4009</v>
           </cell>
           <cell r="B55" t="str">
-            <v>中級槍兵</v>
+            <v>上級槍兵</v>
           </cell>
           <cell r="C55">
             <v>1</v>
           </cell>
           <cell r="D55">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E55">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="F55">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="G55" t="str">
             <v>挑発</v>
@@ -1351,53 +1455,128 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>49</v>
+            <v>4010</v>
           </cell>
           <cell r="B56" t="str">
-            <v>上級槍兵</v>
+            <v>矢の一撃</v>
           </cell>
           <cell r="C56">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D56">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E56">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="F56">
-            <v>6</v>
+            <v>-1</v>
           </cell>
           <cell r="G56" t="str">
-            <v>挑発</v>
+            <v>敵1体に1ダメージ　カードを1枚引く</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>50</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>矢の一撃</v>
-          </cell>
-          <cell r="C57">
-            <v>2</v>
-          </cell>
-          <cell r="D57">
-            <v>2</v>
-          </cell>
-          <cell r="E57">
-            <v>1</v>
-          </cell>
-          <cell r="F57">
+          <cell r="A57" t="str">
+            <v>軍師</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>9001</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>孫権</v>
+          </cell>
+          <cell r="C58">
+            <v>2</v>
+          </cell>
+          <cell r="D58">
+            <v>2</v>
+          </cell>
+          <cell r="E58">
             <v>-1</v>
           </cell>
-          <cell r="G57" t="str">
-            <v>敵1体に1ダメージ　カードを1枚引く</v>
+          <cell r="F58">
+            <v>-1</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>敵1体に1ダメージ　：　敵1体に2ダメージ</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>9002</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>諸葛亮</v>
+          </cell>
+          <cell r="C59">
+            <v>2</v>
+          </cell>
+          <cell r="D59">
+            <v>2</v>
+          </cell>
+          <cell r="E59">
+            <v>-1</v>
+          </cell>
+          <cell r="F59">
+            <v>-1</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>2点ダメージを受け、カードを1枚引く　：　カードを1枚引く</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>9003</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>司馬懿</v>
+          </cell>
+          <cell r="C60">
+            <v>2</v>
+          </cell>
+          <cell r="D60">
+            <v>2</v>
+          </cell>
+          <cell r="E60">
+            <v>-1</v>
+          </cell>
+          <cell r="F60">
+            <v>-1</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>敵兵士1体の攻撃力-1　：　敵兵士1体の攻撃力-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>9004</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>董卓</v>
+          </cell>
+          <cell r="C61">
+            <v>2</v>
+          </cell>
+          <cell r="D61">
+            <v>2</v>
+          </cell>
+          <cell r="E61">
+            <v>-1</v>
+          </cell>
+          <cell r="F61">
+            <v>-1</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>初級歩兵を1体召喚</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1704,10 +1883,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,11 +1967,11 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
-        <v>曹操</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B2,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B2,[1]カードリスト!$B:$B,0)))</f>
+        <v>2001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
@@ -1820,7 +1999,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:R2" si="1">COUNTIF($D:$D,J$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <f t="shared" si="1"/>
@@ -1865,11 +2044,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>夏侯惇</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B3,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B3,[1]カードリスト!$B:$B,0)))</f>
+        <v>2002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
@@ -1881,24 +2060,24 @@
       </c>
       <c r="E3">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：敵兵士1体の攻撃力-4</v>
+        <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>夏侯惇</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B4,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B4,[1]カードリスト!$B:$B,0)))</f>
+        <v>2002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
@@ -1910,24 +2089,24 @@
       </c>
       <c r="E4">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：敵兵士1体の攻撃力-4</v>
+        <v>雄叫び：このターン敵兵士1体の攻撃力-5</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A5,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A5,[1]カードリスト!$A:$A,0)))</f>
-        <v>張ｺｳ</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B5,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B5,[1]カードリスト!$B:$B,0)))</f>
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A5,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A5,[1]カードリスト!$A:$A,0)))</f>
@@ -1952,11 +2131,11 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A6,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A6,[1]カードリスト!$A:$A,0)))</f>
-        <v>張ｺｳ</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B6,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B6,[1]カードリスト!$B:$B,0)))</f>
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A6,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A6,[1]カードリスト!$A:$A,0)))</f>
@@ -1981,11 +2160,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A7,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A7,[1]カードリスト!$A:$A,0)))</f>
-        <v>張ｺｳ</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B7,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B7,[1]カードリスト!$B:$B,0)))</f>
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A7,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A7,[1]カードリスト!$A:$A,0)))</f>
@@ -2010,11 +2189,11 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A8,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A8,[1]カードリスト!$A:$A,0)))</f>
-        <v>郭嘉</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B8,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B8,[1]カードリスト!$B:$B,0)))</f>
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A8,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A8,[1]カードリスト!$A:$A,0)))</f>
@@ -2039,11 +2218,11 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A9,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A9,[1]カードリスト!$A:$A,0)))</f>
-        <v>郭嘉</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B9,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B9,[1]カードリスト!$B:$B,0)))</f>
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A9,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A9,[1]カードリスト!$A:$A,0)))</f>
@@ -2068,11 +2247,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A10,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A10,[1]カードリスト!$A:$A,0)))</f>
-        <v>ﾎｳ娥</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B10,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B10,[1]カードリスト!$B:$B,0)))</f>
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A10,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A10,[1]カードリスト!$A:$A,0)))</f>
@@ -2097,11 +2276,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>25</v>
-      </c>
-      <c r="B11" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A11,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A11,[1]カードリスト!$A:$A,0)))</f>
-        <v>ﾎｳ娥</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B11,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B11,[1]カードリスト!$B:$B,0)))</f>
+        <v>2005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A11,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A11,[1]カードリスト!$A:$A,0)))</f>
@@ -2126,11 +2305,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
-        <v>ﾎｳ娥</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B12,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B12,[1]カードリスト!$B:$B,0)))</f>
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
@@ -2155,11 +2334,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>26</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
-        <v>王異</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B13,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B13,[1]カードリスト!$B:$B,0)))</f>
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
@@ -2184,11 +2363,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>26</v>
-      </c>
-      <c r="B14" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
-        <v>王異</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B14,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B14,[1]カードリスト!$B:$B,0)))</f>
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
@@ -2213,11 +2392,11 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>26</v>
-      </c>
-      <c r="B15" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
-        <v>王異</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B15,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B15,[1]カードリスト!$B:$B,0)))</f>
+        <v>2006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
@@ -2242,11 +2421,11 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>27</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>弱体化</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B16,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B16,[1]カードリスト!$B:$B,0)))</f>
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
@@ -2258,7 +2437,7 @@
       </c>
       <c r="E16">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
@@ -2266,16 +2445,16 @@
       </c>
       <c r="G16" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>このターン敵兵士1体の攻撃力-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>27</v>
-      </c>
-      <c r="B17" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>弱体化</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B17,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B17,[1]カードリスト!$B:$B,0)))</f>
+        <v>2007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
@@ -2287,7 +2466,7 @@
       </c>
       <c r="E17">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
@@ -2295,16 +2474,16 @@
       </c>
       <c r="G17" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>このターン敵兵士1体の攻撃力-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>27</v>
-      </c>
-      <c r="B18" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>弱体化</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B18,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B18,[1]カードリスト!$B:$B,0)))</f>
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
       <c r="C18">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
@@ -2312,11 +2491,11 @@
       </c>
       <c r="D18">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
@@ -2324,16 +2503,16 @@
       </c>
       <c r="G18" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体の攻撃力-2</v>
+        <v>初級騎兵を3体召喚</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>28</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
-        <v>突撃召喚</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B19,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B19,[1]カードリスト!$B:$B,0)))</f>
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
@@ -2358,11 +2537,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>28</v>
-      </c>
-      <c r="B20" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>突撃召喚</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B20,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B20,[1]カードリスト!$B:$B,0)))</f>
+        <v>2009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
       <c r="C20">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
@@ -2374,7 +2553,7 @@
       </c>
       <c r="E20">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
@@ -2382,16 +2561,16 @@
       </c>
       <c r="G20" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>初級騎兵を3体召喚</v>
+        <v>全ての敵兵士に2ダメージ</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>29</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>乱撃</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B21,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B21,[1]カードリスト!$B:$B,0)))</f>
+        <v>2009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
@@ -2416,11 +2595,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>乱撃</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B22,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B22,[1]カードリスト!$B:$B,0)))</f>
+        <v>2009</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
       <c r="C22">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2445,11 +2624,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>29</v>
-      </c>
-      <c r="B23" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>乱撃</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B23,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B23,[1]カードリスト!$B:$B,0)))</f>
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
       <c r="C23">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2457,11 +2636,11 @@
       </c>
       <c r="D23">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2469,16 +2648,16 @@
       </c>
       <c r="G23" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>全ての敵兵士に2ダメージ</v>
+        <v>敵兵士1体に8ダメージ</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>30</v>
-      </c>
-      <c r="B24" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>切断</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B24,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B24,[1]カードリスト!$B:$B,0)))</f>
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
       </c>
       <c r="C24">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
@@ -2503,40 +2682,40 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>切断</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B25,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B25,[1]カードリスト!$B:$B,0)))</f>
+        <v>4002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
       <c r="C25">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>敵兵士1体に8ダメージ</v>
+        <v>無し</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>42</v>
-      </c>
-      <c r="B26" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v>中級歩兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B26,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B26,[1]カードリスト!$B:$B,0)))</f>
+        <v>4003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
       </c>
       <c r="C26">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
@@ -2544,15 +2723,15 @@
       </c>
       <c r="D26">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
@@ -2561,11 +2740,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>43</v>
-      </c>
-      <c r="B27" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
-        <v>上級歩兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B27,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B27,[1]カードリスト!$B:$B,0)))</f>
+        <v>4003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
       </c>
       <c r="C27">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
@@ -2590,11 +2769,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>43</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>上級歩兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B28,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B28,[1]カードリスト!$B:$B,0)))</f>
+        <v>4004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
       </c>
       <c r="C28">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
@@ -2602,28 +2781,28 @@
       </c>
       <c r="D28">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>無し</v>
+        <v>突撃</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>44</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A29,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A29,[1]カードリスト!$A:$A,0)))</f>
-        <v>初級騎兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B29,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B29,[1]カードリスト!$B:$B,0)))</f>
+        <v>4004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
       </c>
       <c r="C29">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A29,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A29,[1]カードリスト!$A:$A,0)))</f>
@@ -2648,11 +2827,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>44</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
-        <v>初級騎兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B30,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B30,[1]カードリスト!$B:$B,0)))</f>
+        <v>4006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
       </c>
       <c r="C30">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
@@ -2660,15 +2839,15 @@
       </c>
       <c r="D30">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
@@ -2677,31 +2856,31 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>46</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>上級騎兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B31,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B31,[1]カードリスト!$B:$B,0)))</f>
+        <v>4010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
       </c>
       <c r="C31">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G31" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>突撃</v>
+        <v>敵1体に1ダメージ　カードを1枚引く</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
